--- a/src/test/resources/testData/batch14excel.xlsx
+++ b/src/test/resources/testData/batch14excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\IdeaProjects\CucumberBatch14\CucumberBatch14\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC7B2035-8583-4F7A-AB05-AF4384F2A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B78A97-0607-4B9E-9AA2-51D776B82D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3090A36F-9976-453A-B423-FD1C3CDF54F7}"/>
   </bookViews>
@@ -60,37 +60,37 @@
     <t>ms</t>
   </si>
   <si>
-    <t>anton</t>
-  </si>
-  <si>
     <t>Syntax123!</t>
   </si>
   <si>
-    <t>ronaldo</t>
-  </si>
-  <si>
-    <t>mbappe</t>
-  </si>
-  <si>
     <t>C:\Users\Joe\Desktop\image.jpg</t>
   </si>
   <si>
-    <t>george</t>
-  </si>
-  <si>
-    <t>george123</t>
-  </si>
-  <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>joe123</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>kevin123</t>
+    <t>ragaa</t>
+  </si>
+  <si>
+    <t>jordanaa</t>
+  </si>
+  <si>
+    <t>ellenaa</t>
+  </si>
+  <si>
+    <t>michelaa</t>
+  </si>
+  <si>
+    <t>cristinaaa</t>
+  </si>
+  <si>
+    <t>carmelaaa</t>
+  </si>
+  <si>
+    <t>ragaa123</t>
+  </si>
+  <si>
+    <t>jordanaa123</t>
+  </si>
+  <si>
+    <t>ellenaa123</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,71 +484,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
